--- a/Base/Teams/Texans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Texans/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Texans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Texans/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2">
         <v>23</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Texans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Texans/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Texans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Texans/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Texans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Texans/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Texans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Texans/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>3</v>
